--- a/Output/AcqTrends/Customer/Other_DoD/Other_DoD_Contracts.xlsx
+++ b/Output/AcqTrends/Customer/Other_DoD/Other_DoD_Contracts.xlsx
@@ -9,12 +9,14 @@
     <sheet name="PSR" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Plat" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FYQ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Veh" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -211,19 +213,60 @@
     <t xml:space="preserve">Undefinitized
 Contract Award</t>
   </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,8 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5958,4 +6003,3414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="n">
+        <v>5049213362.3198</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>6396508831.6875</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>10310439668.5</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>12309057682.8356</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>12030366946.7929</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>13881277718.9796</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>14520987372.6454</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>15927342768.3595</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>16970685990.8322</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>20226436698.4011</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>19805770809.2739</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>20483208374.1896</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>20770014222.8717</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>22029546394.6721</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>20911485347.4863</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>18429757205.7627</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>20647276036.892</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>20315067671.432</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>23989548250.8601</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>24420690335.0428</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>28816096362.9484</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>25219859277.8938</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>27714527163.4189</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>17935508858.1896</v>
+      </c>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="n">
+        <v>719904443.2897</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>934131119.6699</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>1109312488.8931</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1465535681.2297</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1356528827.3601</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>2125309634.579</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>2133450512.0526</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>2378242617.7672</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>3055254538.0198</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>3063122680.1587</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>3912162642.4184</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>3735434532.7937</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>3544149740.4753</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>3666022956.1797</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>3800300581.5949</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>4009690522.8578</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>4179303562.4353</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>4105456246.5091</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>5835254714.1285</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>5825098121.1262</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>4402099208.183</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>3634260365.1033</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>3972498908.0841</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>1868580344.9193</v>
+      </c>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="n">
+        <v>1993137</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>1401327</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>58207089</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>2749985</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>59846686.6406</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>4876415.9004</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>11752279.1528</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>1121397.0894</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>493549.6522</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>844887.6819</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>62727076.903</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>447574032.5557</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1160214149.4805</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>1835653054.2556</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>2579769192.0188</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>2634446862.4869</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>2687905378.8067</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>3372864221.2768</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>3875415012.0733</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>4420546982.2413</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>3852891745.5489</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>3412932482.3087</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>3096888559.4819</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>1443608546.6876</v>
+      </c>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="n">
+        <v>754562768.6959</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>797727464.2749</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>1199055895.623</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>1646341988.0314</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>2059522496.5255</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>2043971681.5205</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>2388690172.5508</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>1786456254.0845</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>1892756032.5517</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>1989126269.5439</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>1929487050.6362</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>2021122032.7888</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>2289956038.5097</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>2409712586.7601</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>2636918524.2021</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>2603988895.1356</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>3250925060.7864</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>3314581017.8987</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>3809298236.042</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>4539509639.1816</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>4708403872.992</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>4968195144.3098</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>5210394772.2011</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>1963273643.9924</v>
+      </c>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="n">
+        <v>3550751996.9027</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>3356135286.6499</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>4177550305.2031</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>2992681565.3858</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>2979488079.4296</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>4067946647.5155</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>4400147317.7472</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>3353248832.2267</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>6908598399.1566</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>6736125971.6583</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>7652390551.586</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>10223207071.1163</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>10783046734.9791</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>7471502718.1322</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>6191330604.0016</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>5606718673.3868</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>5300609350.8717</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>6391681662.4897</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>7836864748.3983</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>8884483921.1993</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>8898922281.6338</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>10350988558.1908</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>12703261104.6128</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>7075897153.4814</v>
+      </c>
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="n">
+        <v>6662466336.4641</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>8819012652.8631</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>11242947450.6797</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>16334720956.5469</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>19248381749.1561</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>26704675905.0142</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>31895227244.5253</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>30647745687.6601</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>35955348119.3697</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>38792716619.121</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>34735405405.3929</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>36460283313.3692</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>43802162064.2767</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>32828572785.7347</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>31598262447.8065</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>30118666175.0626</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>29862462084.1138</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>33948264854.5483</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>42459580136.3608</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>42778913039.6574</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>42911189455.3941</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>38878120267.739</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>46125990041.9662</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>20847321748.4527</v>
+      </c>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="n">
+        <v>171281905</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>290222801</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>325706965</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>158745643</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>89803775</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>44588826</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>38234895.21</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>31487849.6013</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>9195700.5799</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>-3660696.0108</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>132513685.9225</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>163812101.7637</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>202978518.5545</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>154591075.777</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>186461939.9846</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>214380234.6243</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>3056354.1702</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>90720420.377</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1" t="n">
+        <v>1986.54</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>832221.2852</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="1" t="n">
+        <v>12519643000</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>15695318000</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>13045875903</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>13880413302</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>12847588252</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>11390263666</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>12233196403</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>13537514599</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>14311176237</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>15695274788</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>348305</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>3547750.5508</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>517343.4189</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>200329</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>667000</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="n">
+        <v>8158165757.19613</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>10090346456.5205</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>16011760604.8741</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>18757013973.1276</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>17894922149.8582</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>20039771906.1072</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>20302297534.1207</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>21674197910.7599</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>22622192081.5344</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>26690927119.3197</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>25910458311.1592</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>26267315981.4817</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>26155678905.8718</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>27243256174.4845</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>25369781795.3218</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>22105527442.2457</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>24561793621.3146</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>23742705087.1403</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>27393940976.7804</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>27350565051.8443</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>31848437923.1738</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>26967282671.5882</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>27714527163.4189</v>
+      </c>
+      <c r="AV14" s="1" t="n">
+        <v>17106859283.2891</v>
+      </c>
+      <c r="AW14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="n">
+        <v>1163171241.98551</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>1473570486.85573</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>1722724401.60037</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>2233239453.35594</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>2017808589.46441</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>3068213255.94414</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>2982851369.43296</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>3236352851.00349</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>4072702485.592</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>4042115051.34337</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>5117999598.65196</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>4790257337.06196</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>4463147767.32898</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>4533656787.4543</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>4610518808.66447</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>4809413542.36779</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>4971657830.21189</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>4798144829.51966</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>6663344451.16467</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>6523964839.21752</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>4865335734.50072</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>3886069525.13</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>3972498908.0841</v>
+      </c>
+      <c r="AV15" s="1" t="n">
+        <v>1782248904.82872</v>
+      </c>
+      <c r="AW15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="n">
+        <v>3220371.34420678</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>2210561.30788554</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>90393620.8871868</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>4190532.56552849</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>89020709.2682234</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>7039860.76366132</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>16431270.2670385</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>1526016.1601149</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>657909.470476001</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>1114918.84991223</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>82061300.5536261</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>573961282.015797</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>1461057678.16202</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>2270095148.97025</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>3129772007.88264</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>3159880879.7998</v>
+      </c>
+      <c r="AO16" s="1" t="n">
+        <v>3197505427.34592</v>
+      </c>
+      <c r="AP16" s="1" t="n">
+        <v>3941947021.78402</v>
+      </c>
+      <c r="AQ16" s="1" t="n">
+        <v>4425380961.37173</v>
+      </c>
+      <c r="AR16" s="1" t="n">
+        <v>4950902539.76283</v>
+      </c>
+      <c r="AS16" s="1" t="n">
+        <v>4258334718.11266</v>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>3649406365.64687</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>3096888559.4819</v>
+      </c>
+      <c r="AV16" s="1" t="n">
+        <v>1376911492.36961</v>
+      </c>
+      <c r="AW16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="n">
+        <v>1219169739.81899</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>1258396838.68486</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>1862092846.65467</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>2508759034.99201</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>3063497140.54486</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>2950789337.22423</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>3339710816.86311</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>2431039940.12495</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>2523073643.28104</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>2624862949.57318</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>2524208437.47326</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>2591852316.42201</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>2883741638.74505</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>2980016752.58562</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>3199105489.61032</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>3123348144.96222</v>
+      </c>
+      <c r="AO17" s="1" t="n">
+        <v>3867268025.02779</v>
+      </c>
+      <c r="AP17" s="1" t="n">
+        <v>3873830049.1152</v>
+      </c>
+      <c r="AQ17" s="1" t="n">
+        <v>4349881454.61834</v>
+      </c>
+      <c r="AR17" s="1" t="n">
+        <v>5084137753.13093</v>
+      </c>
+      <c r="AS17" s="1" t="n">
+        <v>5203873091.53466</v>
+      </c>
+      <c r="AT17" s="1" t="n">
+        <v>5312429436.97359</v>
+      </c>
+      <c r="AU17" s="1" t="n">
+        <v>5210394772.2011</v>
+      </c>
+      <c r="AV17" s="1" t="n">
+        <v>1872567220.02803</v>
+      </c>
+      <c r="AW17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="n">
+        <v>5737056700.67358</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>5294226692.76879</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>6487592920.60939</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>4560362895.79979</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>4431926928.217</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>5872710321.97292</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>6151999016.7578</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>4563157828.0645</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>9209270626.08609</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>8889032213.48428</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>10011069413.9072</v>
+      </c>
+      <c r="AJ18" s="1" t="n">
+        <v>13110065843.9576</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>13579090750.7683</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>9239775477.52237</v>
+      </c>
+      <c r="AM18" s="1" t="n">
+        <v>7511312746.85371</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>6724965072.07101</v>
+      </c>
+      <c r="AO18" s="1" t="n">
+        <v>6305552011.34989</v>
+      </c>
+      <c r="AP18" s="1" t="n">
+        <v>7470111110.52224</v>
+      </c>
+      <c r="AQ18" s="1" t="n">
+        <v>8949005963.58404</v>
+      </c>
+      <c r="AR18" s="1" t="n">
+        <v>9950400750.55277</v>
+      </c>
+      <c r="AS18" s="1" t="n">
+        <v>9835363204.649</v>
+      </c>
+      <c r="AT18" s="1" t="n">
+        <v>11068183660.4767</v>
+      </c>
+      <c r="AU18" s="1" t="n">
+        <v>12703261104.6128</v>
+      </c>
+      <c r="AV18" s="1" t="n">
+        <v>6748979238.04155</v>
+      </c>
+      <c r="AW18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="n">
+        <v>10764747065.4006</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>13911790855.5049</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>17459913336.5234</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>24891473996.1238</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>28631569962.5209</v>
+      </c>
+      <c r="AD19" s="1" t="n">
+        <v>38552331045.9595</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>44593826633.0699</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>41705971624.6317</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>47929046118.3609</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>51191101402.6128</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>45441820080.8537</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>46756043539.2244</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>55160062677.0191</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>40598076883.7248</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>38334963303.2416</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>36125760867.2404</v>
+      </c>
+      <c r="AO19" s="1" t="n">
+        <v>35524087023.5754</v>
+      </c>
+      <c r="AP19" s="1" t="n">
+        <v>39676148447.9393</v>
+      </c>
+      <c r="AQ19" s="1" t="n">
+        <v>48485082753.1795</v>
+      </c>
+      <c r="AR19" s="1" t="n">
+        <v>47911317325.0224</v>
+      </c>
+      <c r="AS19" s="1" t="n">
+        <v>47426769273.8878</v>
+      </c>
+      <c r="AT19" s="1" t="n">
+        <v>41571891716.2681</v>
+      </c>
+      <c r="AU19" s="1" t="n">
+        <v>46125990041.9662</v>
+      </c>
+      <c r="AV19" s="1" t="n">
+        <v>19884141699.2409</v>
+      </c>
+      <c r="AW19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="n">
+        <v>276745320.890208</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>457819834.026437</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>505811790.631313</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>241902696.424621</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>133581258.950442</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>64370868.4957272</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>53457536.9304195</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>42849199.264964</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>12258013.9043969</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>-4830676.40075084</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>173358076.684664</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>210069836.717559</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>255610848.366911</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>191177984.522665</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>226215338.218924</v>
+      </c>
+      <c r="AN20" s="1" t="n">
+        <v>257137850.849208</v>
+      </c>
+      <c r="AO20" s="1" t="n">
+        <v>3635808.43438932</v>
+      </c>
+      <c r="AP20" s="1" t="n">
+        <v>106027123.376088</v>
+      </c>
+      <c r="AQ20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1" t="n">
+        <v>2195.58524079798</v>
+      </c>
+      <c r="AT20" s="1" t="n">
+        <v>889883.896496314</v>
+      </c>
+      <c r="AU20" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="1" t="n">
+        <v>24883185664.4086</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>30120563812.2919</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>24425619252.7236</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>25391639285.5809</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>23001091666.6526</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>19969036658.3966</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>21051194640.5899</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>22889087172.8427</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>23898772354.3368</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>25887438834.3063</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>562766.854984851</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>5277205.60764832</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>746865.261380549</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <v>280086.943011502</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>907664.90159274</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
+        <v>5049213362.3198</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>6396508831.6875</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>10310439668.5</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>12309057682.8356</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>12030366946.7929</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>13881277718.9796</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>14520987372.6454</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>15927342768.3595</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>16970685990.8322</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>20226436698.4011</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>19805770809.2739</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>20483208374.1896</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>20770014222.8717</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>22029546394.6721</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>20911485347.4863</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>18429757205.7627</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>20647276036.892</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>20315067671.432</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>23989548250.8601</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>24420690335.0428</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>28816096362.9484</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>25219859277.8938</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>27714527163.4189</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>17935508858.1896</v>
+      </c>
+      <c r="AX2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
+        <v>719904443.2897</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>934131119.6699</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>1109312488.8931</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>1465535681.2297</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>1356528827.3601</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>2125309634.579</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>2133450512.0526</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>2378242617.7672</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>3055254538.0198</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>3063122680.1587</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>3912162642.4184</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>3735434532.7937</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>3544149740.4753</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>3666022956.1797</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>3800300581.5949</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>4009690522.8578</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>4179303562.4353</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>4105456246.5091</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>5835254714.1285</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>5825098121.1262</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>4402099208.183</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>3634260365.1033</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>3972498908.0841</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>1868580344.9193</v>
+      </c>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
+        <v>1993137</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>1401327</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>58207089</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>2749985</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>59846686.6406</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>4876415.9004</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>11752279.1528</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>1121397.0894</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>493549.6522</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>844887.6819</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>62727076.903</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>447574032.5557</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>1160214149.4805</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>1835653054.2556</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>2579769192.0188</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>2634446862.4869</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>2687905378.8067</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>3372864221.2768</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>3875415012.0733</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>4420546982.2413</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>3852891745.5489</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>3412932482.3087</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>3096888559.4819</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>1443608546.6876</v>
+      </c>
+      <c r="AX4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
+        <v>754562768.6959</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>797727464.2749</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>1199055895.623</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>1646341988.0314</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>2059522496.5255</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>2043971681.5205</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>2388690172.5508</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>1786456254.0845</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>1892756032.5517</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>1989126269.5439</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>1929487050.6362</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>2021122032.7888</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>2289956038.5097</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>2409712586.7601</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>2636918524.2021</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>2603988895.1356</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>3250925060.7864</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>3314581017.8987</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>3809298236.042</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>4539509639.1816</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>4708403872.992</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>4968195144.3098</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>5210394772.2011</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>1963273643.9924</v>
+      </c>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
+        <v>3550751996.9027</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>3356135286.6499</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>4177550305.2031</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>2992681565.3858</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>2979488079.4296</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>4067946647.5155</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>4400147317.7472</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>3353248832.2267</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>6908598399.1566</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>6736125971.6583</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>7652390551.586</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>10223207071.1163</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>10783046734.9791</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>7471502718.1322</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>6191330604.0016</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>5606718673.3868</v>
+      </c>
+      <c r="AP6" s="2" t="n">
+        <v>5300609350.8717</v>
+      </c>
+      <c r="AQ6" s="2" t="n">
+        <v>6391681662.4897</v>
+      </c>
+      <c r="AR6" s="2" t="n">
+        <v>7836864748.3983</v>
+      </c>
+      <c r="AS6" s="2" t="n">
+        <v>8884483921.1993</v>
+      </c>
+      <c r="AT6" s="2" t="n">
+        <v>8898922281.6338</v>
+      </c>
+      <c r="AU6" s="2" t="n">
+        <v>10350988558.1908</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>12703261104.6128</v>
+      </c>
+      <c r="AW6" s="2" t="n">
+        <v>7075897153.4814</v>
+      </c>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
+        <v>6662466336.4641</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>8819012652.8631</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>11242947450.6797</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>16334720956.5469</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>19248381749.1561</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>26704675905.0142</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>31895227244.5253</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>30647745687.6601</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>35955348119.3697</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>38792716619.121</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>34735405405.3929</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>36460283313.3692</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>43802162064.2767</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>32828572785.7347</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>31598262447.8065</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>30118666175.0626</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>29862462084.1138</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>33948264854.5483</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>42459580136.3608</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>42778913039.6574</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>42911189455.3941</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>38878120267.739</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>46125990041.9662</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>20847321748.4527</v>
+      </c>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
+        <v>171281905</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>290222801</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>325706965</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>158745643</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>89803775</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>44588826</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>38234895.21</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>31487849.6013</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>9195700.5799</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>-3660696.0108</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>132513685.9225</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>163812101.7637</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>202978518.5545</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>154591075.777</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>186461939.9846</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>214380234.6243</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>3056354.1702</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>90720420.377</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="n">
+        <v>1986.54</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>832221.2852</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" s="2" t="n">
+        <v>12519643000</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>15695318000</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>13045875903</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>13880413302</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>12847588252</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>11390263666</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>12233196403</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>13537514599</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>14311176237</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>15695274788</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>348305</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>3547750.5508</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>517343.4189</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>200329</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>667000</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
+    </row>
+    <row r="13">
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
+        <v>8158165757.19613</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>10090346456.5205</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>16011760604.8741</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>18757013973.1276</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>17894922149.8582</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>20039771906.1072</v>
+      </c>
+      <c r="AF14" s="2" t="n">
+        <v>20302297534.1207</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>21674197910.7599</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>22622192081.5344</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>26690927119.3197</v>
+      </c>
+      <c r="AJ14" s="2" t="n">
+        <v>25910458311.1592</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>26267315981.4817</v>
+      </c>
+      <c r="AL14" s="2" t="n">
+        <v>26155678905.8718</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>27243256174.4845</v>
+      </c>
+      <c r="AN14" s="2" t="n">
+        <v>25369781795.3218</v>
+      </c>
+      <c r="AO14" s="2" t="n">
+        <v>22105527442.2457</v>
+      </c>
+      <c r="AP14" s="2" t="n">
+        <v>24561793621.3146</v>
+      </c>
+      <c r="AQ14" s="2" t="n">
+        <v>23742705087.1403</v>
+      </c>
+      <c r="AR14" s="2" t="n">
+        <v>27393940976.7804</v>
+      </c>
+      <c r="AS14" s="2" t="n">
+        <v>27350565051.8443</v>
+      </c>
+      <c r="AT14" s="2" t="n">
+        <v>31848437923.1738</v>
+      </c>
+      <c r="AU14" s="2" t="n">
+        <v>26967282671.5882</v>
+      </c>
+      <c r="AV14" s="2" t="n">
+        <v>27714527163.4189</v>
+      </c>
+      <c r="AW14" s="2" t="n">
+        <v>17106859283.2891</v>
+      </c>
+      <c r="AX14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
+        <v>1163171241.98551</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>1473570486.85573</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>1722724401.60037</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>2233239453.35594</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>2017808589.46441</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>3068213255.94414</v>
+      </c>
+      <c r="AF15" s="2" t="n">
+        <v>2982851369.43296</v>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>3236352851.00349</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>4072702485.592</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>4042115051.34337</v>
+      </c>
+      <c r="AJ15" s="2" t="n">
+        <v>5117999598.65196</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>4790257337.06196</v>
+      </c>
+      <c r="AL15" s="2" t="n">
+        <v>4463147767.32898</v>
+      </c>
+      <c r="AM15" s="2" t="n">
+        <v>4533656787.4543</v>
+      </c>
+      <c r="AN15" s="2" t="n">
+        <v>4610518808.66447</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>4809413542.36779</v>
+      </c>
+      <c r="AP15" s="2" t="n">
+        <v>4971657830.21189</v>
+      </c>
+      <c r="AQ15" s="2" t="n">
+        <v>4798144829.51966</v>
+      </c>
+      <c r="AR15" s="2" t="n">
+        <v>6663344451.16467</v>
+      </c>
+      <c r="AS15" s="2" t="n">
+        <v>6523964839.21752</v>
+      </c>
+      <c r="AT15" s="2" t="n">
+        <v>4865335734.50072</v>
+      </c>
+      <c r="AU15" s="2" t="n">
+        <v>3886069525.13</v>
+      </c>
+      <c r="AV15" s="2" t="n">
+        <v>3972498908.0841</v>
+      </c>
+      <c r="AW15" s="2" t="n">
+        <v>1782248904.82872</v>
+      </c>
+      <c r="AX15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
+        <v>3220371.34420678</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>2210561.30788554</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>90393620.8871868</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>4190532.56552849</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>89020709.2682234</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>7039860.76366132</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>16431270.2670385</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>1526016.1601149</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>657909.470476001</v>
+      </c>
+      <c r="AI16" s="2" t="n">
+        <v>1114918.84991223</v>
+      </c>
+      <c r="AJ16" s="2" t="n">
+        <v>82061300.5536261</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>573961282.015797</v>
+      </c>
+      <c r="AL16" s="2" t="n">
+        <v>1461057678.16202</v>
+      </c>
+      <c r="AM16" s="2" t="n">
+        <v>2270095148.97025</v>
+      </c>
+      <c r="AN16" s="2" t="n">
+        <v>3129772007.88264</v>
+      </c>
+      <c r="AO16" s="2" t="n">
+        <v>3159880879.7998</v>
+      </c>
+      <c r="AP16" s="2" t="n">
+        <v>3197505427.34592</v>
+      </c>
+      <c r="AQ16" s="2" t="n">
+        <v>3941947021.78402</v>
+      </c>
+      <c r="AR16" s="2" t="n">
+        <v>4425380961.37173</v>
+      </c>
+      <c r="AS16" s="2" t="n">
+        <v>4950902539.76283</v>
+      </c>
+      <c r="AT16" s="2" t="n">
+        <v>4258334718.11266</v>
+      </c>
+      <c r="AU16" s="2" t="n">
+        <v>3649406365.64687</v>
+      </c>
+      <c r="AV16" s="2" t="n">
+        <v>3096888559.4819</v>
+      </c>
+      <c r="AW16" s="2" t="n">
+        <v>1376911492.36961</v>
+      </c>
+      <c r="AX16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
+        <v>1219169739.81899</v>
+      </c>
+      <c r="AA17" s="2" t="n">
+        <v>1258396838.68486</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>1862092846.65467</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>2508759034.99201</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>3063497140.54486</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>2950789337.22423</v>
+      </c>
+      <c r="AF17" s="2" t="n">
+        <v>3339710816.86311</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>2431039940.12495</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>2523073643.28104</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>2624862949.57318</v>
+      </c>
+      <c r="AJ17" s="2" t="n">
+        <v>2524208437.47326</v>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>2591852316.42201</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>2883741638.74505</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>2980016752.58562</v>
+      </c>
+      <c r="AN17" s="2" t="n">
+        <v>3199105489.61032</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>3123348144.96222</v>
+      </c>
+      <c r="AP17" s="2" t="n">
+        <v>3867268025.02779</v>
+      </c>
+      <c r="AQ17" s="2" t="n">
+        <v>3873830049.1152</v>
+      </c>
+      <c r="AR17" s="2" t="n">
+        <v>4349881454.61834</v>
+      </c>
+      <c r="AS17" s="2" t="n">
+        <v>5084137753.13093</v>
+      </c>
+      <c r="AT17" s="2" t="n">
+        <v>5203873091.53466</v>
+      </c>
+      <c r="AU17" s="2" t="n">
+        <v>5312429436.97359</v>
+      </c>
+      <c r="AV17" s="2" t="n">
+        <v>5210394772.2011</v>
+      </c>
+      <c r="AW17" s="2" t="n">
+        <v>1872567220.02803</v>
+      </c>
+      <c r="AX17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
+        <v>5737056700.67358</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>5294226692.76879</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>6487592920.60939</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>4560362895.79979</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>4431926928.217</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>5872710321.97292</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>6151999016.7578</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>4563157828.0645</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>9209270626.08609</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>8889032213.48428</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>10011069413.9072</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>13110065843.9576</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>13579090750.7683</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>9239775477.52237</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>7511312746.85371</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>6724965072.07101</v>
+      </c>
+      <c r="AP18" s="2" t="n">
+        <v>6305552011.34989</v>
+      </c>
+      <c r="AQ18" s="2" t="n">
+        <v>7470111110.52224</v>
+      </c>
+      <c r="AR18" s="2" t="n">
+        <v>8949005963.58404</v>
+      </c>
+      <c r="AS18" s="2" t="n">
+        <v>9950400750.55277</v>
+      </c>
+      <c r="AT18" s="2" t="n">
+        <v>9835363204.649</v>
+      </c>
+      <c r="AU18" s="2" t="n">
+        <v>11068183660.4767</v>
+      </c>
+      <c r="AV18" s="2" t="n">
+        <v>12703261104.6128</v>
+      </c>
+      <c r="AW18" s="2" t="n">
+        <v>6748979238.04155</v>
+      </c>
+      <c r="AX18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
+        <v>10764747065.4006</v>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>13911790855.5049</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>17459913336.5234</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>24891473996.1238</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>28631569962.5209</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>38552331045.9595</v>
+      </c>
+      <c r="AF19" s="2" t="n">
+        <v>44593826633.0699</v>
+      </c>
+      <c r="AG19" s="2" t="n">
+        <v>41705971624.6317</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>47929046118.3609</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>51191101402.6128</v>
+      </c>
+      <c r="AJ19" s="2" t="n">
+        <v>45441820080.8537</v>
+      </c>
+      <c r="AK19" s="2" t="n">
+        <v>46756043539.2244</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>55160062677.0191</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>40598076883.7248</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>38334963303.2416</v>
+      </c>
+      <c r="AO19" s="2" t="n">
+        <v>36125760867.2404</v>
+      </c>
+      <c r="AP19" s="2" t="n">
+        <v>35524087023.5754</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>39676148447.9393</v>
+      </c>
+      <c r="AR19" s="2" t="n">
+        <v>48485082753.1795</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>47911317325.0224</v>
+      </c>
+      <c r="AT19" s="2" t="n">
+        <v>47426769273.8878</v>
+      </c>
+      <c r="AU19" s="2" t="n">
+        <v>41571891716.2681</v>
+      </c>
+      <c r="AV19" s="2" t="n">
+        <v>46125990041.9662</v>
+      </c>
+      <c r="AW19" s="2" t="n">
+        <v>19884141699.2409</v>
+      </c>
+      <c r="AX19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
+        <v>276745320.890208</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>457819834.026437</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>505811790.631313</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>241902696.424621</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>133581258.950442</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>64370868.4957272</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>53457536.9304195</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>42849199.264964</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>12258013.9043969</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>-4830676.40075084</v>
+      </c>
+      <c r="AJ20" s="2" t="n">
+        <v>173358076.684664</v>
+      </c>
+      <c r="AK20" s="2" t="n">
+        <v>210069836.717559</v>
+      </c>
+      <c r="AL20" s="2" t="n">
+        <v>255610848.366911</v>
+      </c>
+      <c r="AM20" s="2" t="n">
+        <v>191177984.522665</v>
+      </c>
+      <c r="AN20" s="2" t="n">
+        <v>226215338.218924</v>
+      </c>
+      <c r="AO20" s="2" t="n">
+        <v>257137850.849208</v>
+      </c>
+      <c r="AP20" s="2" t="n">
+        <v>3635808.43438932</v>
+      </c>
+      <c r="AQ20" s="2" t="n">
+        <v>106027123.376088</v>
+      </c>
+      <c r="AR20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2" t="n">
+        <v>2195.58524079798</v>
+      </c>
+      <c r="AU20" s="2" t="n">
+        <v>889883.896496314</v>
+      </c>
+      <c r="AV20" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="2" t="n">
+        <v>24883185664.4086</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>30120563812.2919</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>24425619252.7236</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>25391639285.5809</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>23001091666.6526</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>19969036658.3966</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>21051194640.5899</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>22889087172.8427</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>23898772354.3368</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>25887438834.3063</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>562766.854984851</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>5277205.60764832</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>746865.261380549</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>280086.943011502</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>907664.90159274</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>